--- a/Proevesvar fra NBJ 2 prolaktinom.xlsx
+++ b/Proevesvar fra NBJ 2 prolaktinom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Ongoing projects\Graphical Lab\v0.1\SP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7621B66A-EA51-47E4-AD55-3FE0FFC37B72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BE5727-6267-46F0-945A-41002F99D85C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11400" xr2:uid="{7B4722C6-454E-4D47-8C19-DB4D685A0DBC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7B4722C6-454E-4D47-8C19-DB4D685A0DBC}"/>
   </bookViews>
   <sheets>
     <sheet name="Prolaktinom" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Østradiol;P: 0,53</t>
   </si>
@@ -134,9 +134,6 @@
     <t>Follitropin [FSH];P: 3,9</t>
   </si>
   <si>
-    <t>Thyrotropin [TSH];P: 2,12</t>
-  </si>
-  <si>
     <t>THYROTROPIN (TSH-REFLEKS) (LOKAL);P: Erstattet</t>
   </si>
   <si>
@@ -158,16 +155,7 @@
     <t>Follitropin [FSH];P: 2,6</t>
   </si>
   <si>
-    <t>Østradiol;P: 0,62</t>
-  </si>
-  <si>
-    <t>Prolaktin;P: 2.410 (H)</t>
-  </si>
-  <si>
     <t>Lutropin [LH];P: 2,0</t>
-  </si>
-  <si>
-    <t>Follitropin [FSH];P: 1,0</t>
   </si>
   <si>
     <t>Østradiol;P: 0,61</t>
@@ -693,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E36422D-2267-40FF-9463-677A31BC56AF}">
   <dimension ref="A2:A194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -709,7 +697,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
@@ -719,32 +707,32 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
@@ -754,67 +742,67 @@
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -824,7 +812,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
@@ -834,7 +822,7 @@
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -844,7 +832,7 @@
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -860,12 +848,12 @@
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -880,7 +868,7 @@
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -890,7 +878,7 @@
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
@@ -900,12 +888,12 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
@@ -915,7 +903,7 @@
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -931,47 +919,47 @@
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
@@ -981,32 +969,32 @@
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
@@ -1016,22 +1004,22 @@
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
@@ -1041,12 +1029,12 @@
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
@@ -1056,17 +1044,17 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
@@ -1079,12 +1067,12 @@
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
@@ -1097,12 +1085,12 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
@@ -1112,12 +1100,12 @@
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
@@ -1127,12 +1115,12 @@
     </row>
     <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
@@ -1142,46 +1130,21 @@
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="1"/>
@@ -1196,12 +1159,12 @@
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="132" spans="1:1" x14ac:dyDescent="0.25">
@@ -1211,12 +1174,12 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
@@ -1226,7 +1189,7 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
@@ -1236,7 +1199,7 @@
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
@@ -1244,11 +1207,6 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
         <v>33</v>
       </c>
     </row>
